--- a/biology/Botanique/Allium_oporinanthum/Allium_oporinanthum.xlsx
+++ b/biology/Botanique/Allium_oporinanthum/Allium_oporinanthum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ail de Girerd
-Allium oporinanthum, l’ail de Girerd, est une espèce européenne d'oignon sauvage native d'Espagne et de France[1],[2],[3],[4],[5].
-Il a pour synonymes : Allium oleraceum subsp. girerdii J.-M.Tison[5].
+Allium oporinanthum, l’ail de Girerd, est une espèce européenne d'oignon sauvage native d'Espagne et de France.
+Il a pour synonymes : Allium oleraceum subsp. girerdii J.-M.Tison.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bulbes sont ovoïdes (19-18 x 9-13 mm) avec une tunique coriace brun foncé. Les hampes florale rigide cylindriques hautes de 25  à   60 cm couvertes par des feuilles en gaines sur la moitié ou le tiers de la hauteur. Spathe à deux valves inégales terminées en pointe linéaire très longue. Les fleurs rose brun sale sont peu nombreuses (5 à 18), en ombelle lâche avec des pédicelles qui pendent jusqu'à l'anthèse puis se redressent. Les tépales sont vert-jaunâtres avec des stries brun-violacées. Les capsule ont 3 valves[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bulbes sont ovoïdes (19-18 x 9-13 mm) avec une tunique coriace brun foncé. Les hampes florale rigide cylindriques hautes de 25  à   60 cm couvertes par des feuilles en gaines sur la moitié ou le tiers de la hauteur. Spathe à deux valves inégales terminées en pointe linéaire très longue. Les fleurs rose brun sale sont peu nombreuses (5 à 18), en ombelle lâche avec des pédicelles qui pendent jusqu'à l'anthèse puis se redressent. Les tépales sont vert-jaunâtres avec des stries brun-violacées. Les capsule ont 3 valves.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se développe sur les roches calcaires ombragées et plus rarement dans les garrigues rocailleuses. On le trouve dans des places localisées du Nord Ouest de la zone méditerranéenne de Valence à Saint-Tropez. Sa population est réduite, et très localisée, ce qui peut être un signe que ce taxon a un caractère relictuel[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se développe sur les roches calcaires ombragées et plus rarement dans les garrigues rocailleuses. On le trouve dans des places localisées du Nord Ouest de la zone méditerranéenne de Valence à Saint-Tropez. Sa population est réduite, et très localisée, ce qui peut être un signe que ce taxon a un caractère relictuel.
 </t>
         </is>
       </c>
